--- a/DataRepo/data/tests/submission_v3/multitracer_v3/study.xlsx
+++ b/DataRepo/data/tests/submission_v3/multitracer_v3/study.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10414"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10714"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rleach/PROJECT-local/TRACEBASE/tracebase/DataRepo/data/tests/submission_v3/multitracer_v3/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8C00EA5-1AED-4440-946D-D1A7C41F162F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{694061B8-F081-A945-9B12-7D7592AFFE79}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="7280" yWindow="4920" windowWidth="39940" windowHeight="21040" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -414,7 +414,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="93">
   <si>
     <t>Age</t>
   </si>
@@ -515,13 +515,7 @@
     <t>alaglu {alanine-[13C3,15N1][14];glucose-[13C6][20]}</t>
   </si>
   <si>
-    <t>Study ID</t>
-  </si>
-  <si>
     <t>Name</t>
-  </si>
-  <si>
-    <t>obf</t>
   </si>
   <si>
     <t>ob/ob and wildtype littermates were fasted 7 hours and infused with tracers</t>
@@ -1212,47 +1206,40 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11AD9441-61D3-6D4C-BF71-BBB9AE1C084E}">
-  <dimension ref="A1:L2"/>
+  <dimension ref="A1:K2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="8.6640625" style="14" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.5" style="14" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="59.33203125" style="16" bestFit="1" customWidth="1"/>
-    <col min="4" max="16384" width="10.83203125" style="14"/>
+    <col min="1" max="1" width="11.5" style="14" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="59.33203125" style="16" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="10.83203125" style="14"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="11" t="s">
         <v>33</v>
       </c>
       <c r="B1" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="C1" s="11" t="s">
         <v>21</v>
       </c>
+      <c r="C1" s="11"/>
       <c r="D1" s="11"/>
       <c r="E1" s="11"/>
-      <c r="F1" s="11"/>
+      <c r="F1" s="12"/>
       <c r="G1" s="12"/>
-      <c r="H1" s="12"/>
-      <c r="I1" s="13"/>
+      <c r="H1" s="13"/>
+      <c r="I1" s="11"/>
       <c r="J1" s="11"/>
       <c r="K1" s="11"/>
-      <c r="L1" s="11"/>
-    </row>
-    <row r="2" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="14" t="s">
-        <v>35</v>
-      </c>
-      <c r="B2" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="15" t="s">
-        <v>36</v>
+      <c r="B2" s="15" t="s">
+        <v>34</v>
       </c>
     </row>
   </sheetData>
@@ -1281,42 +1268,42 @@
   <sheetData>
     <row r="1" spans="1:6" s="11" customFormat="1" ht="14" x14ac:dyDescent="0.15">
       <c r="A1" s="18" t="s">
+        <v>66</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="C1" s="11" t="s">
         <v>68</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="D1" s="11" t="s">
         <v>69</v>
       </c>
-      <c r="C1" s="11" t="s">
+      <c r="E1" s="11" t="s">
         <v>70</v>
       </c>
-      <c r="D1" s="11" t="s">
+      <c r="F1" s="11" t="s">
         <v>71</v>
-      </c>
-      <c r="E1" s="11" t="s">
-        <v>72</v>
-      </c>
-      <c r="F1" s="11" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A2" s="19" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B2" s="17" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C2" s="14" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D2" s="14" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="E2" s="20">
         <v>36526</v>
       </c>
       <c r="F2" s="16" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
   </sheetData>
@@ -1341,24 +1328,24 @@
   <sheetData>
     <row r="1" spans="1:3" ht="14" x14ac:dyDescent="0.15">
       <c r="A1" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="C1" s="11" t="s">
         <v>78</v>
-      </c>
-      <c r="B1" s="11" t="s">
-        <v>79</v>
-      </c>
-      <c r="C1" s="11" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A2" s="14" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B2" s="14" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C2" s="19" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
   </sheetData>
@@ -1385,22 +1372,22 @@
   <sheetData>
     <row r="1" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="C1" s="11" t="s">
         <v>83</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="D1" s="11" t="s">
         <v>84</v>
       </c>
-      <c r="C1" s="11" t="s">
+      <c r="E1" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="F1" s="11" t="s">
         <v>85</v>
-      </c>
-      <c r="D1" s="11" t="s">
-        <v>86</v>
-      </c>
-      <c r="E1" s="11" t="s">
-        <v>68</v>
-      </c>
-      <c r="F1" s="11" t="s">
-        <v>87</v>
       </c>
       <c r="K1" s="11"/>
     </row>
@@ -1412,13 +1399,13 @@
         <v>23</v>
       </c>
       <c r="C2" s="14" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D2" s="14" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="E2" s="19" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
   </sheetData>
@@ -1442,13 +1429,13 @@
   <sheetData>
     <row r="1" spans="1:3" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" s="21" t="s">
+        <v>88</v>
+      </c>
+      <c r="B1" s="21" t="s">
+        <v>89</v>
+      </c>
+      <c r="C1" s="21" t="s">
         <v>90</v>
-      </c>
-      <c r="B1" s="21" t="s">
-        <v>91</v>
-      </c>
-      <c r="C1" s="21" t="s">
-        <v>92</v>
       </c>
     </row>
   </sheetData>
@@ -5426,7 +5413,7 @@
         <v>44154</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D2" s="6" t="s">
         <v>18</v>
@@ -10675,19 +10662,19 @@
   <sheetData>
     <row r="1" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="11" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B1" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="C1" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="C1" s="11" t="s">
-        <v>39</v>
-      </c>
       <c r="D1" s="11" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E1" s="11" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F1" s="11"/>
       <c r="G1" s="11"/>
@@ -10704,10 +10691,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="14" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C2" s="17" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D2" s="14">
         <v>20</v>
@@ -10721,10 +10708,10 @@
         <v>1</v>
       </c>
       <c r="B3" s="14" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C3" s="17" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D3" s="14">
         <v>14</v>
@@ -10758,25 +10745,25 @@
   <sheetData>
     <row r="1" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="11" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B1" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="C1" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="D1" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="C1" s="11" t="s">
+      <c r="E1" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="D1" s="11" t="s">
+      <c r="F1" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="E1" s="12" t="s">
-        <v>47</v>
-      </c>
-      <c r="F1" s="12" t="s">
-        <v>48</v>
-      </c>
       <c r="G1" s="11" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="H1" s="11"/>
       <c r="I1" s="11"/>
@@ -10787,10 +10774,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="14" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C2" s="14" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D2" s="14">
         <v>13</v>
@@ -10799,7 +10786,7 @@
         <v>6</v>
       </c>
       <c r="G2" s="17" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="15" x14ac:dyDescent="0.2">
@@ -10807,10 +10794,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="14" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C3" s="14" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D3" s="14">
         <v>13</v>
@@ -10819,7 +10806,7 @@
         <v>3</v>
       </c>
       <c r="G3" s="17" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="15" x14ac:dyDescent="0.2">
@@ -10827,10 +10814,10 @@
         <v>2</v>
       </c>
       <c r="B4" s="14" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C4" s="14" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D4" s="14">
         <v>15</v>
@@ -10839,7 +10826,7 @@
         <v>1</v>
       </c>
       <c r="G4" s="17" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="15" x14ac:dyDescent="0.2">
@@ -10870,16 +10857,16 @@
   <sheetData>
     <row r="1" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="C1" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="D1" s="11" t="s">
         <v>54</v>
-      </c>
-      <c r="C1" s="11" t="s">
-        <v>55</v>
-      </c>
-      <c r="D1" s="11" t="s">
-        <v>56</v>
       </c>
       <c r="E1" s="11"/>
       <c r="F1" s="11"/>
@@ -10892,30 +10879,30 @@
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A2" s="14" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B2" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="C2" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="D2" s="14" t="s">
         <v>57</v>
-      </c>
-      <c r="C2" s="14" t="s">
-        <v>58</v>
-      </c>
-      <c r="D2" s="14" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A3" s="14" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B3" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="C3" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="D3" s="14" t="s">
         <v>60</v>
-      </c>
-      <c r="C3" s="14" t="s">
-        <v>61</v>
-      </c>
-      <c r="D3" s="14" t="s">
-        <v>62</v>
       </c>
     </row>
   </sheetData>
@@ -10940,13 +10927,13 @@
   <sheetData>
     <row r="1" spans="1:4" ht="14" x14ac:dyDescent="0.15">
       <c r="A1" s="18" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B1" s="11" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C1" s="11" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D1" s="11" t="s">
         <v>21</v>
@@ -10954,16 +10941,16 @@
     </row>
     <row r="2" spans="1:4" ht="14" x14ac:dyDescent="0.15">
       <c r="A2" s="19" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B2" s="14" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C2" s="14">
         <v>25</v>
       </c>
       <c r="D2" s="16" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.15">

--- a/DataRepo/data/tests/submission_v3/multitracer_v3/study.xlsx
+++ b/DataRepo/data/tests/submission_v3/multitracer_v3/study.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10714"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10916"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rleach/PROJECT-local/TRACEBASE/tracebase/DataRepo/data/tests/submission_v3/multitracer_v3/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{694061B8-F081-A945-9B12-7D7592AFFE79}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30027673-F379-0845-B199-39E1A06FA2CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7280" yWindow="4920" windowWidth="39940" windowHeight="21040" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7280" yWindow="4920" windowWidth="39940" windowHeight="21040" tabRatio="500" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Study" sheetId="5" r:id="rId1"/>
@@ -22,7 +22,7 @@
     <sheet name="Tracers" sheetId="7" r:id="rId7"/>
     <sheet name="Compounds" sheetId="8" r:id="rId8"/>
     <sheet name="LC Protocols" sheetId="9" r:id="rId9"/>
-    <sheet name="Sequences" sheetId="10" r:id="rId10"/>
+    <sheet name="MS Runs" sheetId="10" r:id="rId10"/>
     <sheet name="Peak Annotation Files" sheetId="11" r:id="rId11"/>
     <sheet name="Peak Annotation Details" sheetId="12" r:id="rId12"/>
     <sheet name="Defaults" sheetId="13" r:id="rId13"/>
@@ -542,9 +542,6 @@
     <t>glucose-[13C6]</t>
   </si>
   <si>
-    <t>Compound Name</t>
-  </si>
-  <si>
     <t>Element</t>
   </si>
   <si>
@@ -614,9 +611,6 @@
     <t>Polar HILIC is the way to go!</t>
   </si>
   <si>
-    <t>Sequence Name</t>
-  </si>
-  <si>
     <t>Operator</t>
   </si>
   <si>
@@ -648,9 +642,6 @@
   </si>
   <si>
     <t>File Format</t>
-  </si>
-  <si>
-    <t>Default Sequence Name</t>
   </si>
   <si>
     <t>isocorr</t>
@@ -693,6 +684,15 @@
   </si>
   <si>
     <t>Infusate Row Group</t>
+  </si>
+  <si>
+    <t>MS Run Name</t>
+  </si>
+  <si>
+    <t>Default MS Run</t>
+  </si>
+  <si>
+    <t>MS Run</t>
   </si>
 </sst>
 </file>
@@ -1208,7 +1208,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11AD9441-61D3-6D4C-BF71-BBB9AE1C084E}">
   <dimension ref="A1:K2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
@@ -1252,7 +1252,7 @@
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -1268,42 +1268,42 @@
   <sheetData>
     <row r="1" spans="1:6" s="11" customFormat="1" ht="14" x14ac:dyDescent="0.15">
       <c r="A1" s="18" t="s">
+        <v>90</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="C1" s="11" t="s">
         <v>66</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="D1" s="11" t="s">
         <v>67</v>
       </c>
-      <c r="C1" s="11" t="s">
+      <c r="E1" s="11" t="s">
         <v>68</v>
       </c>
-      <c r="D1" s="11" t="s">
+      <c r="F1" s="11" t="s">
         <v>69</v>
-      </c>
-      <c r="E1" s="11" t="s">
-        <v>70</v>
-      </c>
-      <c r="F1" s="11" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A2" s="19" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B2" s="17" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C2" s="14" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D2" s="14" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="E2" s="20">
         <v>36526</v>
       </c>
       <c r="F2" s="16" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
   </sheetData>
@@ -1316,7 +1316,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F3C311A5-37D3-EC42-964B-1F06C94286F8}">
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D1" sqref="D1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
@@ -1328,24 +1330,24 @@
   <sheetData>
     <row r="1" spans="1:3" ht="14" x14ac:dyDescent="0.15">
       <c r="A1" s="11" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B1" s="11" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C1" s="11" t="s">
-        <v>78</v>
+        <v>91</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A2" s="14" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="B2" s="14" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="C2" s="19" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
   </sheetData>
@@ -1358,7 +1360,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9072829C-D118-B24B-B49F-A037A59AEB40}">
   <dimension ref="A1:K2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F1" sqref="F1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
@@ -1372,22 +1376,22 @@
   <sheetData>
     <row r="1" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="C1" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="D1" s="11" t="s">
         <v>81</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="E1" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="F1" s="11" t="s">
         <v>82</v>
-      </c>
-      <c r="C1" s="11" t="s">
-        <v>83</v>
-      </c>
-      <c r="D1" s="11" t="s">
-        <v>84</v>
-      </c>
-      <c r="E1" s="11" t="s">
-        <v>66</v>
-      </c>
-      <c r="F1" s="11" t="s">
-        <v>85</v>
       </c>
       <c r="K1" s="11"/>
     </row>
@@ -1399,13 +1403,13 @@
         <v>23</v>
       </c>
       <c r="C2" s="14" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="D2" s="14" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="E2" s="19" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
   </sheetData>
@@ -1429,13 +1433,13 @@
   <sheetData>
     <row r="1" spans="1:3" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" s="21" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="B1" s="21" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="C1" s="21" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
     </row>
   </sheetData>
@@ -5413,7 +5417,7 @@
         <v>44154</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D2" s="6" t="s">
         <v>18</v>
@@ -10662,7 +10666,7 @@
   <sheetData>
     <row r="1" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="11" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="B1" s="11" t="s">
         <v>35</v>
@@ -10729,7 +10733,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{295AAE7F-6F13-2E4E-BF80-D85D286842A4}">
   <dimension ref="A1:J12"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
@@ -10745,22 +10751,22 @@
   <sheetData>
     <row r="1" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="11" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="B1" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="C1" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="C1" s="11" t="s">
+      <c r="D1" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="D1" s="11" t="s">
+      <c r="E1" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="E1" s="12" t="s">
+      <c r="F1" s="12" t="s">
         <v>45</v>
-      </c>
-      <c r="F1" s="12" t="s">
-        <v>46</v>
       </c>
       <c r="G1" s="11" t="s">
         <v>37</v>
@@ -10774,10 +10780,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="14" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C2" s="14" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D2" s="14">
         <v>13</v>
@@ -10794,10 +10800,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="14" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C3" s="14" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D3" s="14">
         <v>13</v>
@@ -10814,10 +10820,10 @@
         <v>2</v>
       </c>
       <c r="B4" s="14" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C4" s="14" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D4" s="14">
         <v>15</v>
@@ -10857,16 +10863,16 @@
   <sheetData>
     <row r="1" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="B1" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="C1" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="C1" s="11" t="s">
+      <c r="D1" s="11" t="s">
         <v>53</v>
-      </c>
-      <c r="D1" s="11" t="s">
-        <v>54</v>
       </c>
       <c r="E1" s="11"/>
       <c r="F1" s="11"/>
@@ -10879,30 +10885,30 @@
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A2" s="14" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B2" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="C2" s="14" t="s">
         <v>55</v>
       </c>
-      <c r="C2" s="14" t="s">
+      <c r="D2" s="14" t="s">
         <v>56</v>
-      </c>
-      <c r="D2" s="14" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A3" s="14" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B3" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="C3" s="14" t="s">
         <v>58</v>
       </c>
-      <c r="C3" s="14" t="s">
+      <c r="D3" s="14" t="s">
         <v>59</v>
-      </c>
-      <c r="D3" s="14" t="s">
-        <v>60</v>
       </c>
     </row>
   </sheetData>
@@ -10930,10 +10936,10 @@
         <v>33</v>
       </c>
       <c r="B1" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="C1" s="11" t="s">
         <v>61</v>
-      </c>
-      <c r="C1" s="11" t="s">
-        <v>62</v>
       </c>
       <c r="D1" s="11" t="s">
         <v>21</v>
@@ -10941,16 +10947,16 @@
     </row>
     <row r="2" spans="1:4" ht="14" x14ac:dyDescent="0.15">
       <c r="A2" s="19" t="s">
+        <v>62</v>
+      </c>
+      <c r="B2" s="14" t="s">
         <v>63</v>
-      </c>
-      <c r="B2" s="14" t="s">
-        <v>64</v>
       </c>
       <c r="C2" s="14">
         <v>25</v>
       </c>
       <c r="D2" s="16" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.15">

--- a/DataRepo/data/tests/submission_v3/multitracer_v3/study.xlsx
+++ b/DataRepo/data/tests/submission_v3/multitracer_v3/study.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rleach/PROJECT-local/TRACEBASE/tracebase/DataRepo/data/tests/submission_v3/multitracer_v3/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30027673-F379-0845-B199-39E1A06FA2CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34F8B8BB-089D-9E44-ACFE-5F89546F388C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7280" yWindow="4920" windowWidth="39940" windowHeight="21040" tabRatio="500" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7280" yWindow="4920" windowWidth="39940" windowHeight="21040" tabRatio="500" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Study" sheetId="5" r:id="rId1"/>
@@ -27,8 +27,19 @@
     <sheet name="Peak Annotation Details" sheetId="12" r:id="rId12"/>
     <sheet name="Defaults" sheetId="13" r:id="rId13"/>
   </sheets>
-  <calcPr calcId="0" iterateDelta="1E-4"/>
+  <calcPr calcId="191029"/>
   <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="CalcA1ExcelA1"/>
     </ext>
@@ -414,7 +425,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="94">
   <si>
     <t>Age</t>
   </si>
@@ -693,6 +704,9 @@
   </si>
   <si>
     <t>MS Run</t>
+  </si>
+  <si>
+    <t>Tracer</t>
   </si>
 </sst>
 </file>
@@ -10652,7 +10666,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A071A6C0-1F50-2649-B578-4832509AE47D}">
   <dimension ref="A1:N3"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
@@ -10672,7 +10688,7 @@
         <v>35</v>
       </c>
       <c r="C1" s="11" t="s">
-        <v>37</v>
+        <v>93</v>
       </c>
       <c r="D1" s="11" t="s">
         <v>38</v>
@@ -10733,7 +10749,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{295AAE7F-6F13-2E4E-BF80-D85D286842A4}">
   <dimension ref="A1:J12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>

--- a/DataRepo/data/tests/submission_v3/multitracer_v3/study.xlsx
+++ b/DataRepo/data/tests/submission_v3/multitracer_v3/study.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rleach/PROJECT-local/TRACEBASE/tracebase/DataRepo/data/tests/submission_v3/multitracer_v3/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rleach/PROJECT-LOCAL/TRACEBASE/tracebase/DataRepo/data/tests/submission_v3/multitracer_v3/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34F8B8BB-089D-9E44-ACFE-5F89546F388C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F782077-B5EF-554E-9284-3220D75EF2D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7280" yWindow="4920" windowWidth="39940" windowHeight="21040" tabRatio="500" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7280" yWindow="4920" windowWidth="39940" windowHeight="21040" tabRatio="500" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Study" sheetId="5" r:id="rId1"/>
@@ -22,7 +22,7 @@
     <sheet name="Tracers" sheetId="7" r:id="rId7"/>
     <sheet name="Compounds" sheetId="8" r:id="rId8"/>
     <sheet name="LC Protocols" sheetId="9" r:id="rId9"/>
-    <sheet name="MS Runs" sheetId="10" r:id="rId10"/>
+    <sheet name="Sequences" sheetId="10" r:id="rId10"/>
     <sheet name="Peak Annotation Files" sheetId="11" r:id="rId11"/>
     <sheet name="Peak Annotation Details" sheetId="12" r:id="rId12"/>
     <sheet name="Defaults" sheetId="13" r:id="rId13"/>
@@ -1435,7 +1435,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B082791-0BA6-B545-B4DC-16564849078B}">
   <dimension ref="A1:C1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
   <cols>
@@ -10666,7 +10666,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A071A6C0-1F50-2649-B578-4832509AE47D}">
   <dimension ref="A1:N3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>

--- a/DataRepo/data/tests/submission_v3/multitracer_v3/study.xlsx
+++ b/DataRepo/data/tests/submission_v3/multitracer_v3/study.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rleach/PROJECT-LOCAL/TRACEBASE/tracebase/DataRepo/data/tests/submission_v3/multitracer_v3/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F782077-B5EF-554E-9284-3220D75EF2D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1989A2A9-FDE1-AD4C-9131-9F084ABAC9D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7280" yWindow="4920" windowWidth="39940" windowHeight="21040" tabRatio="500" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7280" yWindow="4920" windowWidth="39940" windowHeight="21040" tabRatio="500" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Study" sheetId="5" r:id="rId1"/>
@@ -700,13 +700,13 @@
     <t>MS Run Name</t>
   </si>
   <si>
-    <t>Default MS Run</t>
-  </si>
-  <si>
     <t>MS Run</t>
   </si>
   <si>
     <t>Tracer</t>
+  </si>
+  <si>
+    <t>Default Sequence</t>
   </si>
 </sst>
 </file>
@@ -1330,7 +1330,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F3C311A5-37D3-EC42-964B-1F06C94286F8}">
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
@@ -1350,7 +1350,7 @@
         <v>75</v>
       </c>
       <c r="C1" s="11" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.15">
@@ -1402,7 +1402,7 @@
         <v>81</v>
       </c>
       <c r="E1" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F1" s="11" t="s">
         <v>82</v>
@@ -1435,7 +1435,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B082791-0BA6-B545-B4DC-16564849078B}">
   <dimension ref="A1:C1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
   <cols>
@@ -10688,7 +10688,7 @@
         <v>35</v>
       </c>
       <c r="C1" s="11" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D1" s="11" t="s">
         <v>38</v>

--- a/DataRepo/data/tests/submission_v3/multitracer_v3/study.xlsx
+++ b/DataRepo/data/tests/submission_v3/multitracer_v3/study.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rleach/PROJECT-LOCAL/TRACEBASE/tracebase/DataRepo/data/tests/submission_v3/multitracer_v3/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1989A2A9-FDE1-AD4C-9131-9F084ABAC9D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16745E0F-AE5A-C442-823D-D7D0092AA7EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7280" yWindow="4920" windowWidth="39940" windowHeight="21040" tabRatio="500" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7280" yWindow="4920" windowWidth="39940" windowHeight="21040" tabRatio="500" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Study" sheetId="5" r:id="rId1"/>
@@ -697,9 +697,6 @@
     <t>Infusate Row Group</t>
   </si>
   <si>
-    <t>MS Run Name</t>
-  </si>
-  <si>
     <t>MS Run</t>
   </si>
   <si>
@@ -707,6 +704,9 @@
   </si>
   <si>
     <t>Default Sequence</t>
+  </si>
+  <si>
+    <t>Sequence Name</t>
   </si>
 </sst>
 </file>
@@ -1265,7 +1265,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43E7D6F2-968F-8744-AAE8-E219764E3D75}">
   <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
@@ -1282,7 +1282,7 @@
   <sheetData>
     <row r="1" spans="1:6" s="11" customFormat="1" ht="14" x14ac:dyDescent="0.15">
       <c r="A1" s="18" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="B1" s="11" t="s">
         <v>65</v>
@@ -1330,7 +1330,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F3C311A5-37D3-EC42-964B-1F06C94286F8}">
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
@@ -1350,7 +1350,7 @@
         <v>75</v>
       </c>
       <c r="C1" s="11" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.15">
@@ -1402,7 +1402,7 @@
         <v>81</v>
       </c>
       <c r="E1" s="11" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F1" s="11" t="s">
         <v>82</v>
@@ -10688,7 +10688,7 @@
         <v>35</v>
       </c>
       <c r="C1" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D1" s="11" t="s">
         <v>38</v>

--- a/DataRepo/data/tests/submission_v3/multitracer_v3/study.xlsx
+++ b/DataRepo/data/tests/submission_v3/multitracer_v3/study.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rleach/PROJECT-LOCAL/TRACEBASE/tracebase/DataRepo/data/tests/submission_v3/multitracer_v3/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16745E0F-AE5A-C442-823D-D7D0092AA7EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F838B44-47C2-2B43-AF0A-E362D0056905}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7280" yWindow="4920" windowWidth="39940" windowHeight="21040" tabRatio="500" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7280" yWindow="4920" windowWidth="39940" windowHeight="21040" tabRatio="500" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Study" sheetId="5" r:id="rId1"/>
@@ -697,9 +697,6 @@
     <t>Infusate Row Group</t>
   </si>
   <si>
-    <t>MS Run</t>
-  </si>
-  <si>
     <t>Tracer</t>
   </si>
   <si>
@@ -707,6 +704,9 @@
   </si>
   <si>
     <t>Sequence Name</t>
+  </si>
+  <si>
+    <t>Sequence</t>
   </si>
 </sst>
 </file>
@@ -1265,7 +1265,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43E7D6F2-968F-8744-AAE8-E219764E3D75}">
   <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
@@ -1282,7 +1282,7 @@
   <sheetData>
     <row r="1" spans="1:6" s="11" customFormat="1" ht="14" x14ac:dyDescent="0.15">
       <c r="A1" s="18" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B1" s="11" t="s">
         <v>65</v>
@@ -1350,7 +1350,7 @@
         <v>75</v>
       </c>
       <c r="C1" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.15">
@@ -1374,7 +1374,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9072829C-D118-B24B-B49F-A037A59AEB40}">
   <dimension ref="A1:K2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
@@ -1402,7 +1402,7 @@
         <v>81</v>
       </c>
       <c r="E1" s="11" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="F1" s="11" t="s">
         <v>82</v>
@@ -10688,7 +10688,7 @@
         <v>35</v>
       </c>
       <c r="C1" s="11" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D1" s="11" t="s">
         <v>38</v>
